--- a/Code/Results/Cases/Case_3_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.72023786892293</v>
+        <v>10.78870267507108</v>
       </c>
       <c r="C2">
-        <v>7.667807667243795</v>
+        <v>4.739763129625044</v>
       </c>
       <c r="D2">
-        <v>9.548131793229226</v>
+        <v>10.39049875215931</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.89425366903915</v>
+        <v>34.72366958286326</v>
       </c>
       <c r="G2">
-        <v>2.104984700003913</v>
+        <v>3.664517566322587</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.300849988770411</v>
+        <v>11.40098933484022</v>
       </c>
       <c r="K2">
-        <v>12.15423390927815</v>
+        <v>10.11336487028463</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.00597609515587</v>
+        <v>25.76425711858706</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81463805491326</v>
+        <v>10.50461739567848</v>
       </c>
       <c r="C3">
-        <v>7.291264267373865</v>
+        <v>4.53753218069159</v>
       </c>
       <c r="D3">
-        <v>9.013744626782644</v>
+        <v>10.28506853920411</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.52388899600207</v>
+        <v>34.77864920164437</v>
       </c>
       <c r="G3">
-        <v>2.110350505749774</v>
+        <v>3.66649278908222</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.030564746620891</v>
+        <v>11.38327850150298</v>
       </c>
       <c r="K3">
-        <v>11.43912572328021</v>
+        <v>9.914647745785389</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.05135671051451</v>
+        <v>25.85619558417756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.22636306261539</v>
+        <v>10.32802025247671</v>
       </c>
       <c r="C4">
-        <v>7.049921336871735</v>
+        <v>4.407875623387196</v>
       </c>
       <c r="D4">
-        <v>8.673341656552196</v>
+        <v>10.22186733867488</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.31749812188381</v>
+        <v>34.82112680498717</v>
       </c>
       <c r="G4">
-        <v>2.113742708232274</v>
+        <v>3.667769451852884</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.865482571806244</v>
+        <v>11.37468163205411</v>
       </c>
       <c r="K4">
-        <v>10.97694192651364</v>
+        <v>9.792046724735156</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.09494237726361</v>
+        <v>25.91820972920383</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.97849198920262</v>
+        <v>10.25562011887286</v>
       </c>
       <c r="C5">
-        <v>6.949085688265194</v>
+        <v>4.35370790196287</v>
       </c>
       <c r="D5">
-        <v>8.531668822814591</v>
+        <v>10.19652431176859</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.23860631043814</v>
+        <v>34.84062428721671</v>
       </c>
       <c r="G5">
-        <v>2.115150253089489</v>
+        <v>3.66830581374136</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.798516319810036</v>
+        <v>11.37175354997994</v>
       </c>
       <c r="K5">
-        <v>10.78282604235145</v>
+        <v>9.7420040413874</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.11648178516448</v>
+        <v>25.94487679078379</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.93684023855797</v>
+        <v>10.24357515394063</v>
       </c>
       <c r="C6">
-        <v>6.932193979981618</v>
+        <v>4.344634504536236</v>
       </c>
       <c r="D6">
-        <v>8.507970118871935</v>
+        <v>10.19234175951974</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.22581892576302</v>
+        <v>34.8439937829292</v>
       </c>
       <c r="G6">
-        <v>2.115385515227786</v>
+        <v>3.668395850825021</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.787417729727069</v>
+        <v>11.37130214938952</v>
       </c>
       <c r="K6">
-        <v>10.7502460443454</v>
+        <v>9.733691515218199</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.12028148799462</v>
+        <v>25.94938904352141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22305321103966</v>
+        <v>10.32704545259299</v>
       </c>
       <c r="C7">
-        <v>7.048571404599631</v>
+        <v>4.40715042181025</v>
       </c>
       <c r="D7">
-        <v>8.671442777032027</v>
+        <v>10.22152385139128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.3164131524494</v>
+        <v>34.8213809051602</v>
       </c>
       <c r="G7">
-        <v>2.113761588012544</v>
+        <v>3.667776620114287</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.864578084468686</v>
+        <v>11.37463981095529</v>
       </c>
       <c r="K7">
-        <v>10.97434732175804</v>
+        <v>9.791372074226496</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.09521779843707</v>
+        <v>25.91856372332444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.41465221579504</v>
+        <v>10.69126397472929</v>
       </c>
       <c r="C8">
-        <v>7.540115265252288</v>
+        <v>4.671199087203686</v>
       </c>
       <c r="D8">
-        <v>9.36649679924721</v>
+        <v>10.35384422791574</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.76215321985961</v>
+        <v>34.74081386193909</v>
       </c>
       <c r="G8">
-        <v>2.106814984567071</v>
+        <v>3.66518539826976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.207524268190429</v>
+        <v>11.39441152621359</v>
       </c>
       <c r="K8">
-        <v>11.91247751891845</v>
+        <v>10.04500832207051</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.01825390080091</v>
+        <v>25.79480087847364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.49759277432577</v>
+        <v>11.38378292264876</v>
       </c>
       <c r="C9">
-        <v>8.421380691305421</v>
+        <v>5.143703677744011</v>
       </c>
       <c r="D9">
-        <v>10.62750801705076</v>
+        <v>10.62429779148237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.80535208818787</v>
+        <v>34.65220951311531</v>
       </c>
       <c r="G9">
-        <v>2.093935390064321</v>
+        <v>3.660608439839609</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.883511683552173</v>
+        <v>11.45112913040344</v>
       </c>
       <c r="K9">
-        <v>13.56796137774456</v>
+        <v>10.53491718458097</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.0000392396314</v>
+        <v>25.59638760211478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.87621560620869</v>
+        <v>11.8737595720965</v>
       </c>
       <c r="C10">
-        <v>9.016370843208733</v>
+        <v>5.461290053835364</v>
       </c>
       <c r="D10">
-        <v>11.48744567354768</v>
+        <v>10.82805774013231</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.6772288490511</v>
+        <v>34.62963566491945</v>
       </c>
       <c r="G10">
-        <v>2.084878739223181</v>
+        <v>3.65754997075908</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.378204346466452</v>
+        <v>11.50354352218873</v>
       </c>
       <c r="K10">
-        <v>14.67173605609599</v>
+        <v>10.88670575662131</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.07858055265509</v>
+        <v>25.47779998042799</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.47115708511528</v>
+        <v>12.09153472538518</v>
       </c>
       <c r="C11">
-        <v>9.275407137600144</v>
+        <v>5.599038336677794</v>
       </c>
       <c r="D11">
-        <v>11.86368760676067</v>
+        <v>10.92149947420113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.09706339590495</v>
+        <v>34.62862924842355</v>
       </c>
       <c r="G11">
-        <v>2.080835688230026</v>
+        <v>3.656223953702722</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.602146414027498</v>
+        <v>11.52967040918007</v>
       </c>
       <c r="K11">
-        <v>15.14960765381105</v>
+        <v>11.04426893978474</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.13665097132074</v>
+        <v>25.42979371650409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.69187711188677</v>
+        <v>12.17318726570586</v>
       </c>
       <c r="C12">
-        <v>9.371815044436293</v>
+        <v>5.650212739735719</v>
       </c>
       <c r="D12">
-        <v>12.00398839215182</v>
+        <v>10.95696180377295</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.25939666142157</v>
+        <v>34.62958082157746</v>
       </c>
       <c r="G12">
-        <v>2.079314760214312</v>
+        <v>3.655731162052665</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.686745591050734</v>
+        <v>11.53988731373015</v>
       </c>
       <c r="K12">
-        <v>15.32710280697887</v>
+        <v>11.10352463987123</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.16204858704063</v>
+        <v>25.41247223896173</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64454344230076</v>
+        <v>12.15563931374295</v>
       </c>
       <c r="C13">
-        <v>9.351126859788279</v>
+        <v>5.639235650588665</v>
       </c>
       <c r="D13">
-        <v>11.97386903337457</v>
+        <v>10.94932136231807</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.22428605247857</v>
+        <v>34.62931661073424</v>
       </c>
       <c r="G13">
-        <v>2.079641886749133</v>
+        <v>3.655836878801187</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.668535277539462</v>
+        <v>11.53767263115725</v>
       </c>
       <c r="K13">
-        <v>15.28902971457795</v>
+        <v>11.09078194639324</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.1564241084028</v>
+        <v>25.41616454203783</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48940712183353</v>
+        <v>12.09826907011781</v>
       </c>
       <c r="C14">
-        <v>9.283372455046322</v>
+        <v>5.603268392297322</v>
       </c>
       <c r="D14">
-        <v>11.87527389507619</v>
+        <v>10.92441558916102</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.11035142089793</v>
+        <v>34.62868082530745</v>
       </c>
       <c r="G14">
-        <v>2.080710364174657</v>
+        <v>3.656183224473842</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.6091107271862</v>
+        <v>11.53050451305525</v>
       </c>
       <c r="K14">
-        <v>15.16427957129708</v>
+        <v>11.04915246471911</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.13867104178661</v>
+        <v>25.42835146490621</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39378812557777</v>
+        <v>12.06301990429422</v>
       </c>
       <c r="C15">
-        <v>9.241651462042297</v>
+        <v>5.581108192302657</v>
       </c>
       <c r="D15">
-        <v>11.81459793659307</v>
+        <v>10.90916935465417</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.04099993798788</v>
+        <v>34.62846494777138</v>
       </c>
       <c r="G15">
-        <v>2.08136612131773</v>
+        <v>3.656396586437037</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.572683890921798</v>
+        <v>11.52615576747349</v>
       </c>
       <c r="K15">
-        <v>15.08741609188118</v>
+        <v>11.02359822037311</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.12824631642142</v>
+        <v>25.43592806916276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.83669178728695</v>
+        <v>11.85941762319838</v>
       </c>
       <c r="C16">
-        <v>8.999207090149072</v>
+        <v>5.452150704213592</v>
       </c>
       <c r="D16">
-        <v>11.46255418367551</v>
+        <v>10.82196363821864</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.65025993475713</v>
+        <v>34.62988790844493</v>
       </c>
       <c r="G16">
-        <v>2.085144427871232</v>
+        <v>3.657637938965715</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.363543055947142</v>
+        <v>11.50188158680609</v>
       </c>
       <c r="K16">
-        <v>14.64001989092965</v>
+        <v>10.87635418394549</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.07525176504003</v>
+        <v>25.48105711286712</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48672474686562</v>
+        <v>11.73314555223447</v>
       </c>
       <c r="C17">
-        <v>8.847486741539464</v>
+        <v>5.371301286540469</v>
       </c>
       <c r="D17">
-        <v>11.24273636224347</v>
+        <v>10.76863657218553</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.4165090145627</v>
+        <v>34.63313404796727</v>
       </c>
       <c r="G17">
-        <v>2.087481318041511</v>
+        <v>3.658416158648331</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.234925853989937</v>
+        <v>11.48757146636977</v>
       </c>
       <c r="K17">
-        <v>14.35936094859201</v>
+        <v>10.78535243856224</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.04860246597562</v>
+        <v>25.51026604383523</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28239831418995</v>
+        <v>11.66003972753972</v>
       </c>
       <c r="C18">
-        <v>8.759126959397593</v>
+        <v>5.324167016508008</v>
       </c>
       <c r="D18">
-        <v>11.11489649002176</v>
+        <v>10.73803665828647</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.28424610642478</v>
+        <v>34.6358729938168</v>
       </c>
       <c r="G18">
-        <v>2.088832732085882</v>
+        <v>3.658869918783619</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.160847550337888</v>
+        <v>11.47955591346514</v>
       </c>
       <c r="K18">
-        <v>14.19564989142707</v>
+        <v>10.73278151380003</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.03536576279982</v>
+        <v>25.52762514253485</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.2126939468987</v>
+        <v>11.63520784477279</v>
       </c>
       <c r="C19">
-        <v>8.729022383445081</v>
+        <v>5.308100348328781</v>
       </c>
       <c r="D19">
-        <v>11.07137151537067</v>
+        <v>10.72768940399735</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.23983891090589</v>
+        <v>34.63695005657555</v>
       </c>
       <c r="G19">
-        <v>2.089291579167432</v>
+        <v>3.659024611668822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.135750088444961</v>
+        <v>11.47687910347823</v>
       </c>
       <c r="K19">
-        <v>14.139827424452</v>
+        <v>10.71494428810868</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.03123726772054</v>
+        <v>25.53359852314173</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52429299305193</v>
+        <v>11.7466374350595</v>
       </c>
       <c r="C20">
-        <v>8.863750987942213</v>
+        <v>5.379973400505545</v>
       </c>
       <c r="D20">
-        <v>11.26628213005854</v>
+        <v>10.77430605335519</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.44116601921374</v>
+        <v>34.63269824889211</v>
       </c>
       <c r="G20">
-        <v>2.08723180369482</v>
+        <v>3.658332679804995</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.248628196606743</v>
+        <v>11.48907256132539</v>
       </c>
       <c r="K20">
-        <v>14.38947376956674</v>
+        <v>10.79506385461601</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.05122147634137</v>
+        <v>25.50709883547306</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.53509799860392</v>
+        <v>12.11514278740931</v>
       </c>
       <c r="C21">
-        <v>9.303319312867595</v>
+        <v>5.613859809045278</v>
       </c>
       <c r="D21">
-        <v>11.90429280136058</v>
+        <v>10.93172913946202</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.14372573950825</v>
+        <v>34.62883140135411</v>
       </c>
       <c r="G21">
-        <v>2.080396260720632</v>
+        <v>3.656081241183468</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.62657097291199</v>
+        <v>11.5326012338601</v>
       </c>
       <c r="K21">
-        <v>15.20101553005465</v>
+        <v>11.06139160529345</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.14379151756981</v>
+        <v>25.42474857336226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16910174101409</v>
+        <v>12.35120519803873</v>
       </c>
       <c r="C22">
-        <v>9.580789300077935</v>
+        <v>5.760952606065094</v>
       </c>
       <c r="D22">
-        <v>12.30859678279836</v>
+        <v>11.03505504980555</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.6224276775065</v>
+        <v>34.63407171627269</v>
       </c>
       <c r="G22">
-        <v>2.075987137181823</v>
+        <v>3.654664227903</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.872382436208623</v>
+        <v>11.56293104529072</v>
       </c>
       <c r="K22">
-        <v>15.71122645684518</v>
+        <v>11.2330388051663</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.22424318943182</v>
+        <v>25.37592726691269</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.83313695267401</v>
+        <v>12.22567542925733</v>
       </c>
       <c r="C23">
-        <v>9.433598270375306</v>
+        <v>5.682980017423545</v>
       </c>
       <c r="D23">
-        <v>12.09397626822533</v>
+        <v>10.97987754163154</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.36514345205067</v>
+        <v>34.63056414638005</v>
       </c>
       <c r="G23">
-        <v>2.078335372616445</v>
+        <v>3.655415549539491</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.741309976731069</v>
+        <v>11.5465731114563</v>
       </c>
       <c r="K23">
-        <v>15.44075470020221</v>
+        <v>11.14166567747055</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.1794148985412</v>
+        <v>25.40152561004825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50731812929786</v>
+        <v>11.74053933837007</v>
       </c>
       <c r="C24">
-        <v>8.856401452518856</v>
+        <v>5.376054769702169</v>
       </c>
       <c r="D24">
-        <v>11.25564164546071</v>
+        <v>10.77174269633899</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.43001197379812</v>
+        <v>34.63289255528135</v>
       </c>
       <c r="G24">
-        <v>2.087344584437205</v>
+        <v>3.658370400802271</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.242433783084234</v>
+        <v>11.48839325703596</v>
       </c>
       <c r="K24">
-        <v>14.37586710468792</v>
+        <v>10.79067410661705</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.05003094429972</v>
+        <v>25.50852896598198</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.96097450464881</v>
+        <v>11.19936552742723</v>
       </c>
       <c r="C25">
-        <v>8.192078027947735</v>
+        <v>5.020949698838963</v>
       </c>
       <c r="D25">
-        <v>10.29781921019783</v>
+        <v>10.55012533465177</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.5047470058876</v>
+        <v>34.668724325157</v>
       </c>
       <c r="G25">
-        <v>2.097344807727607</v>
+        <v>3.661792967731498</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.700719681713091</v>
+        <v>11.43388282434614</v>
       </c>
       <c r="K25">
-        <v>13.13989260255248</v>
+        <v>10.40356502608355</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.98962656254803</v>
+        <v>25.64530275865788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.78870267507108</v>
+        <v>13.72023786892301</v>
       </c>
       <c r="C2">
-        <v>4.739763129625044</v>
+        <v>7.667807667244071</v>
       </c>
       <c r="D2">
-        <v>10.39049875215931</v>
+        <v>9.548131793229313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.72366958286326</v>
+        <v>24.89425366903899</v>
       </c>
       <c r="G2">
-        <v>3.664517566322587</v>
+        <v>2.104984700004446</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.40098933484022</v>
+        <v>8.300849988770418</v>
       </c>
       <c r="K2">
-        <v>10.11336487028463</v>
+        <v>12.15423390927824</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.76425711858706</v>
+        <v>17.00597609515561</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.50461739567848</v>
+        <v>12.81463805491331</v>
       </c>
       <c r="C3">
-        <v>4.53753218069159</v>
+        <v>7.291264267373865</v>
       </c>
       <c r="D3">
-        <v>10.28506853920411</v>
+        <v>9.01374462678266</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.77864920164437</v>
+        <v>24.5238889960019</v>
       </c>
       <c r="G3">
-        <v>3.66649278908222</v>
+        <v>2.110350505749909</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.38327850150298</v>
+        <v>8.030564746620906</v>
       </c>
       <c r="K3">
-        <v>9.914647745785389</v>
+        <v>11.43912572328028</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.85619558417756</v>
+        <v>17.05135671051433</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.32802025247671</v>
+        <v>12.22636306261538</v>
       </c>
       <c r="C4">
-        <v>4.407875623387196</v>
+        <v>7.049921336871556</v>
       </c>
       <c r="D4">
-        <v>10.22186733867488</v>
+        <v>8.673341656552164</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.82112680498717</v>
+        <v>24.31749812188372</v>
       </c>
       <c r="G4">
-        <v>3.667769451852884</v>
+        <v>2.113742708232407</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.37468163205411</v>
+        <v>7.865482571806301</v>
       </c>
       <c r="K4">
-        <v>9.792046724735156</v>
+        <v>10.97694192651361</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.91820972920383</v>
+        <v>17.09494237726356</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.25562011887286</v>
+        <v>11.97849198920259</v>
       </c>
       <c r="C5">
-        <v>4.35370790196287</v>
+        <v>6.949085688265516</v>
       </c>
       <c r="D5">
-        <v>10.19652431176859</v>
+        <v>8.531668822814598</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.84062428721671</v>
+        <v>24.23860631043804</v>
       </c>
       <c r="G5">
-        <v>3.66830581374136</v>
+        <v>2.115150253089354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.37175354997994</v>
+        <v>7.798516319810041</v>
       </c>
       <c r="K5">
-        <v>9.7420040413874</v>
+        <v>10.78282604235149</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.94487679078379</v>
+        <v>17.11648178516436</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.24357515394063</v>
+        <v>11.93684023855801</v>
       </c>
       <c r="C6">
-        <v>4.344634504536236</v>
+        <v>6.932193979981703</v>
       </c>
       <c r="D6">
-        <v>10.19234175951974</v>
+        <v>8.507970118871825</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.8439937829292</v>
+        <v>24.22581892576289</v>
       </c>
       <c r="G6">
-        <v>3.668395850825021</v>
+        <v>2.115385515227787</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.37130214938952</v>
+        <v>7.787417729727107</v>
       </c>
       <c r="K6">
-        <v>9.733691515218199</v>
+        <v>10.75024604434546</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.94938904352141</v>
+        <v>17.12028148799458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.32704545259299</v>
+        <v>12.2230532110397</v>
       </c>
       <c r="C7">
-        <v>4.40715042181025</v>
+        <v>7.048571404599452</v>
       </c>
       <c r="D7">
-        <v>10.22152385139128</v>
+        <v>8.671442777032055</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.8213809051602</v>
+        <v>24.3164131524492</v>
       </c>
       <c r="G7">
-        <v>3.667776620114287</v>
+        <v>2.113761588012409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.37463981095529</v>
+        <v>7.864578084468747</v>
       </c>
       <c r="K7">
-        <v>9.791372074226496</v>
+        <v>10.97434732175809</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.91856372332444</v>
+        <v>17.09521779843687</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.69126397472929</v>
+        <v>13.41465221579499</v>
       </c>
       <c r="C8">
-        <v>4.671199087203686</v>
+        <v>7.540115265252445</v>
       </c>
       <c r="D8">
-        <v>10.35384422791574</v>
+        <v>9.366496799247196</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.74081386193909</v>
+        <v>24.76215321985955</v>
       </c>
       <c r="G8">
-        <v>3.66518539826976</v>
+        <v>2.106814984567069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.39441152621359</v>
+        <v>8.207524268190463</v>
       </c>
       <c r="K8">
-        <v>10.04500832207051</v>
+        <v>11.91247751891843</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.79480087847364</v>
+        <v>17.0182539008009</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.38378292264876</v>
+        <v>15.49759277432565</v>
       </c>
       <c r="C9">
-        <v>5.143703677744011</v>
+        <v>8.421380691305462</v>
       </c>
       <c r="D9">
-        <v>10.62429779148237</v>
+        <v>10.62750801705075</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.65220951311531</v>
+        <v>25.80535208818789</v>
       </c>
       <c r="G9">
-        <v>3.660608439839609</v>
+        <v>2.093935390064454</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.45112913040344</v>
+        <v>8.883511683552186</v>
       </c>
       <c r="K9">
-        <v>10.53491718458097</v>
+        <v>13.56796137774449</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.59638760211478</v>
+        <v>17.00003923963141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.8737595720965</v>
+        <v>16.87621560620877</v>
       </c>
       <c r="C10">
-        <v>5.461290053835364</v>
+        <v>9.016370843208721</v>
       </c>
       <c r="D10">
-        <v>10.82805774013231</v>
+        <v>11.48744567354761</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.62963566491945</v>
+        <v>26.67722884905086</v>
       </c>
       <c r="G10">
-        <v>3.65754997075908</v>
+        <v>2.084878739223451</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.50354352218873</v>
+        <v>9.378204346466426</v>
       </c>
       <c r="K10">
-        <v>10.88670575662131</v>
+        <v>14.67173605609603</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.47779998042799</v>
+        <v>17.07858055265492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.09153472538518</v>
+        <v>17.4711570851153</v>
       </c>
       <c r="C11">
-        <v>5.599038336677794</v>
+        <v>9.275407137600158</v>
       </c>
       <c r="D11">
-        <v>10.92149947420113</v>
+        <v>11.86368760676068</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.62862924842355</v>
+        <v>27.09706339590478</v>
       </c>
       <c r="G11">
-        <v>3.656223953702722</v>
+        <v>2.080835688230026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.52967040918007</v>
+        <v>9.60214641402751</v>
       </c>
       <c r="K11">
-        <v>11.04426893978474</v>
+        <v>15.14960765381107</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.42979371650409</v>
+        <v>17.13665097132055</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.17318726570586</v>
+        <v>17.69187711188679</v>
       </c>
       <c r="C12">
-        <v>5.650212739735719</v>
+        <v>9.371815044436278</v>
       </c>
       <c r="D12">
-        <v>10.95696180377295</v>
+        <v>12.00398839215178</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.62958082157746</v>
+        <v>27.25939666142139</v>
       </c>
       <c r="G12">
-        <v>3.655731162052665</v>
+        <v>2.079314760214177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.53988731373015</v>
+        <v>9.686745591050707</v>
       </c>
       <c r="K12">
-        <v>11.10352463987123</v>
+        <v>15.32710280697888</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.41247223896173</v>
+        <v>17.16204858704042</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.15563931374295</v>
+        <v>17.64454344230074</v>
       </c>
       <c r="C13">
-        <v>5.639235650588665</v>
+        <v>9.351126859788209</v>
       </c>
       <c r="D13">
-        <v>10.94932136231807</v>
+        <v>11.97386903337459</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.62931661073424</v>
+        <v>27.22428605247858</v>
       </c>
       <c r="G13">
-        <v>3.655836878801187</v>
+        <v>2.079641886749001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.53767263115725</v>
+        <v>9.668535277539469</v>
       </c>
       <c r="K13">
-        <v>11.09078194639324</v>
+        <v>15.28902971457791</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.41616454203783</v>
+        <v>17.15642410840285</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.09826907011781</v>
+        <v>17.48940712183354</v>
       </c>
       <c r="C14">
-        <v>5.603268392297322</v>
+        <v>9.283372455046255</v>
       </c>
       <c r="D14">
-        <v>10.92441558916102</v>
+        <v>11.87527389507619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.62868082530745</v>
+        <v>27.11035142089794</v>
       </c>
       <c r="G14">
-        <v>3.656183224473842</v>
+        <v>2.080710364174524</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.53050451305525</v>
+        <v>9.609110727186236</v>
       </c>
       <c r="K14">
-        <v>11.04915246471911</v>
+        <v>15.16427957129709</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.42835146490621</v>
+        <v>17.13867104178664</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.06301990429422</v>
+        <v>17.3937881255778</v>
       </c>
       <c r="C15">
-        <v>5.581108192302657</v>
+        <v>9.24165146204237</v>
       </c>
       <c r="D15">
-        <v>10.90916935465417</v>
+        <v>11.81459793659306</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.62846494777138</v>
+        <v>27.04099993798776</v>
       </c>
       <c r="G15">
-        <v>3.656396586437037</v>
+        <v>2.08136612131773</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.52615576747349</v>
+        <v>9.572683890921807</v>
       </c>
       <c r="K15">
-        <v>11.02359822037311</v>
+        <v>15.08741609188124</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.43592806916276</v>
+        <v>17.12824631642127</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.85941762319838</v>
+        <v>16.8366917872869</v>
       </c>
       <c r="C16">
-        <v>5.452150704213592</v>
+        <v>8.999207090149085</v>
       </c>
       <c r="D16">
-        <v>10.82196363821864</v>
+        <v>11.46255418367548</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.62988790844493</v>
+        <v>26.65025993475717</v>
       </c>
       <c r="G16">
-        <v>3.657637938965715</v>
+        <v>2.085144427871098</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.50188158680609</v>
+        <v>9.363543055947114</v>
       </c>
       <c r="K16">
-        <v>10.87635418394549</v>
+        <v>14.6400198909296</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.48105711286712</v>
+        <v>17.07525176504013</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.73314555223447</v>
+        <v>16.48672474686559</v>
       </c>
       <c r="C17">
-        <v>5.371301286540469</v>
+        <v>8.847486741539607</v>
       </c>
       <c r="D17">
-        <v>10.76863657218553</v>
+        <v>11.24273636224346</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.63313404796727</v>
+        <v>26.41650901456262</v>
       </c>
       <c r="G17">
-        <v>3.658416158648331</v>
+        <v>2.087481318041244</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.48757146636977</v>
+        <v>9.234925853989955</v>
       </c>
       <c r="K17">
-        <v>10.78535243856224</v>
+        <v>14.35936094859203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.51026604383523</v>
+        <v>17.04860246597558</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.66003972753972</v>
+        <v>16.28239831418993</v>
       </c>
       <c r="C18">
-        <v>5.324167016508008</v>
+        <v>8.759126959397593</v>
       </c>
       <c r="D18">
-        <v>10.73803665828647</v>
+        <v>11.11489649002173</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.6358729938168</v>
+        <v>26.28424610642492</v>
       </c>
       <c r="G18">
-        <v>3.658869918783619</v>
+        <v>2.088832732086015</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.47955591346514</v>
+        <v>9.160847550337913</v>
       </c>
       <c r="K18">
-        <v>10.73278151380003</v>
+        <v>14.19564989142703</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.52762514253485</v>
+        <v>17.03536576279997</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.63520784477279</v>
+        <v>16.2126939468987</v>
       </c>
       <c r="C19">
-        <v>5.308100348328781</v>
+        <v>8.72902238344505</v>
       </c>
       <c r="D19">
-        <v>10.72768940399735</v>
+        <v>11.07137151537064</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.63695005657555</v>
+        <v>26.23983891090587</v>
       </c>
       <c r="G19">
-        <v>3.659024611668822</v>
+        <v>2.089291579167298</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.47687910347823</v>
+        <v>9.135750088444988</v>
       </c>
       <c r="K19">
-        <v>10.71494428810868</v>
+        <v>14.13982742445197</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.53359852314173</v>
+        <v>17.03123726772059</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.7466374350595</v>
+        <v>16.52429299305194</v>
       </c>
       <c r="C20">
-        <v>5.379973400505545</v>
+        <v>8.863750987942156</v>
       </c>
       <c r="D20">
-        <v>10.77430605335519</v>
+        <v>11.26628213005853</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.63269824889211</v>
+        <v>26.44116601921358</v>
       </c>
       <c r="G20">
-        <v>3.658332679804995</v>
+        <v>2.08723180369482</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.48907256132539</v>
+        <v>9.248628196606756</v>
       </c>
       <c r="K20">
-        <v>10.79506385461601</v>
+        <v>14.38947376956678</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.50709883547306</v>
+        <v>17.05122147634124</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.11514278740931</v>
+        <v>17.53509799860398</v>
       </c>
       <c r="C21">
-        <v>5.613859809045278</v>
+        <v>9.303319312867446</v>
       </c>
       <c r="D21">
-        <v>10.93172913946202</v>
+        <v>11.90429280136057</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.62883140135411</v>
+        <v>27.14372573950822</v>
       </c>
       <c r="G21">
-        <v>3.656081241183468</v>
+        <v>2.080396260720631</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.5326012338601</v>
+        <v>9.626570972911976</v>
       </c>
       <c r="K21">
-        <v>11.06139160529345</v>
+        <v>15.20101553005469</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.42474857336226</v>
+        <v>17.14379151756976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.35120519803873</v>
+        <v>18.16910174101408</v>
       </c>
       <c r="C22">
-        <v>5.760952606065094</v>
+        <v>9.580789300077901</v>
       </c>
       <c r="D22">
-        <v>11.03505504980555</v>
+        <v>12.30859678279836</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.63407171627269</v>
+        <v>27.62242767750641</v>
       </c>
       <c r="G22">
-        <v>3.654664227903</v>
+        <v>2.075987137181554</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.56293104529072</v>
+        <v>9.872382436208623</v>
       </c>
       <c r="K22">
-        <v>11.2330388051663</v>
+        <v>15.71122645684521</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.37592726691269</v>
+        <v>17.22424318943173</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.22567542925733</v>
+        <v>17.83313695267396</v>
       </c>
       <c r="C23">
-        <v>5.682980017423545</v>
+        <v>9.433598270375509</v>
       </c>
       <c r="D23">
-        <v>10.97987754163154</v>
+        <v>12.09397626822532</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.63056414638005</v>
+        <v>27.36514345205071</v>
       </c>
       <c r="G23">
-        <v>3.655415549539491</v>
+        <v>2.078335372616712</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.5465731114563</v>
+        <v>9.741309976731072</v>
       </c>
       <c r="K23">
-        <v>11.14166567747055</v>
+        <v>15.44075470020221</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.40152561004825</v>
+        <v>17.17941489854125</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.74053933837007</v>
+        <v>16.50731812929788</v>
       </c>
       <c r="C24">
-        <v>5.376054769702169</v>
+        <v>8.856401452518885</v>
       </c>
       <c r="D24">
-        <v>10.77174269633899</v>
+        <v>11.25564164546075</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.63289255528135</v>
+        <v>26.43001197379807</v>
       </c>
       <c r="G24">
-        <v>3.658370400802271</v>
+        <v>2.087344584437337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.48839325703596</v>
+        <v>9.242433783084234</v>
       </c>
       <c r="K24">
-        <v>10.79067410661705</v>
+        <v>14.37586710468796</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.50852896598198</v>
+        <v>17.05003094429958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.19936552742723</v>
+        <v>14.9609745046488</v>
       </c>
       <c r="C25">
-        <v>5.020949698838963</v>
+        <v>8.192078027947899</v>
       </c>
       <c r="D25">
-        <v>10.55012533465177</v>
+        <v>10.2978192101978</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.668724325157</v>
+        <v>25.50474700588758</v>
       </c>
       <c r="G25">
-        <v>3.661792967731498</v>
+        <v>2.097344807727606</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.43388282434614</v>
+        <v>8.700719681713093</v>
       </c>
       <c r="K25">
-        <v>10.40356502608355</v>
+        <v>13.13989260255254</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.64530275865788</v>
+        <v>16.98962656254804</v>
       </c>
     </row>
   </sheetData>
